--- a/data/trans_camb/P20_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,35</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>3,71</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 18,51</t>
+          <t>-16,53; 39,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 3,36</t>
+          <t>-18,85; 18,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 5,39</t>
+          <t>-10,56; 23,63</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,94%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 37,09</t>
+          <t>-27,96; 115,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 4,8</t>
+          <t>-24,83; 30,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 8,4</t>
+          <t>-15,75; 47,48</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,6</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,44</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 8,4</t>
+          <t>-8,06; 16,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -1,94</t>
+          <t>-16,94; 4,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,54; -1,21</t>
+          <t>-10,06; 6,84</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,44%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,52%</t>
+          <t>-14,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,22%</t>
+          <t>-4,22%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 17,02</t>
+          <t>-21,88; 63,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,87; -2,79</t>
+          <t>-31,21; 8,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,12; -2,09</t>
+          <t>-22,32; 17,89</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-3,17</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 6,61</t>
+          <t>-16,82; 6,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 4,17</t>
+          <t>-10,5; 10,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 2,47</t>
+          <t>-11,35; 4,72</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,49%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,26%</t>
+          <t>-2,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>-8,36%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 12,93</t>
+          <t>-40,25; 20,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 7,04</t>
+          <t>-23,78; 30,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 4,17</t>
+          <t>-27,46; 13,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,39</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 3,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -3,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,08; -2,47</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 6,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,63; -5,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -4,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,72; 11,14</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-10,49; 3,55</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 4,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-7,91%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-3,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-19,34; 33,79</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; 8,2</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-15,2; 10,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P20_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-8.863676398177667</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.33506966228594</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.371166420197783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,53; 39,99</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,85; 18,45</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,56; 23,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-32.97030892626926</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-23.4199302614982</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-20.7766451498816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>15,92%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,29%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.19992191980153</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.92200235161478</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.60366121105117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-27,96; 115,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-24,83; 30,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,75; 47,48</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1191431116995335</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.05908911571050581</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.08636053374759203</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,31</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4050676917597631</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2937684321444243</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2621975380519436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; 16,86</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,94; 4,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; 6,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.261339083077798</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.2215681453351767</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1631218951842471</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>12,99%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-14,75%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,22%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.785418298787824</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.89077517813877</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.168444337565158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-21,88; 63,12</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-31,21; 8,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-22,32; 17,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.52396804604652</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-24.12238401350146</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.45168585647476</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,17</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.93601357366193</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2610925958877304</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.56133275326615</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,82; 6,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; 10,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; 4,72</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.07731172592858396</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1588649873447352</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.07000345867565358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-16,72%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,41%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-8,36%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1923325081383944</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3169238089508325</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.214468539919521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-40,25; 20,39</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-23,78; 30,87</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-27,46; 13,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.56994502090226</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.005253886384185594</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1178494847975278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-6.470982802315472</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.3496113395165756</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.960439461470743</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-22.3327626997545</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-14.16511556406828</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-13.65792971165198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.636876885301618</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.2448464790312</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.291409102148037</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1141795906195612</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.005804797193447085</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.05046193576168263</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-3,8</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3564284108855612</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2169711857191429</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2154796935534258</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 11,14</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-10,49; 3,55</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 4,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.1717787914254443</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2271470959089498</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1383453598037019</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-7,91%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-3,6%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.352792188995955</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-5.863130227508706</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-3.939932464459961</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-19,34; 33,79</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 8,2</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-15,2; 10,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-11.7964705944776</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-13.18091153692255</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-10.77116397145148</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.3268465069641</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.626578074439322</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.482671029593293</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02434727290954121</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.08843002139288622</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.06400480351647703</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1932372369577435</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1933387441948067</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1689577794321923</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2180511753696753</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.03485966978895506</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.04182631874181621</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
